--- a/학습자료/단답형/개항기.xlsx
+++ b/학습자료/단답형/개항기.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>

--- a/학습자료/단답형/개항기.xlsx
+++ b/학습자료/단답형/개항기.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
